--- a/src/main/resources/input.xlsx
+++ b/src/main/resources/input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="246"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="246" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="configuration" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>Browser</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>checkcontent</t>
-  </si>
-  <si>
-    <t>+praveen</t>
   </si>
   <si>
     <t>end</t>
@@ -1106,7 +1103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1144,7 +1141,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -1249,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1352,13 +1349,13 @@
         <v>25</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>27</v>
@@ -1376,13 +1373,13 @@
         <v>28</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>27</v>
@@ -1399,7 +1396,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>22</v>
@@ -1445,16 +1442,13 @@
       <c r="E7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>34</v>
-      </c>
       <c r="I7" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="15"/>
       <c r="M8" s="31"/>

--- a/src/main/resources/input.xlsx
+++ b/src/main/resources/input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="246" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="246"/>
   </bookViews>
   <sheets>
     <sheet name="configuration" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>Browser</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Chrome</t>
-  </si>
-  <si>
-    <t>800*900</t>
   </si>
   <si>
     <t>Testcase id</t>
@@ -109,18 +106,6 @@
     <t>Enter password</t>
   </si>
   <si>
-    <t>Sign-in button</t>
-  </si>
-  <si>
-    <t>.//*[@id='signIn']</t>
-  </si>
-  <si>
-    <t>Check content</t>
-  </si>
-  <si>
-    <t>.//*[@id='gb']/div[1]/div[1]/div[1]/div/span</t>
-  </si>
-  <si>
     <t>checkcontent</t>
   </si>
   <si>
@@ -140,6 +125,27 @@
   </si>
   <si>
     <t>SuperAdmin</t>
+  </si>
+  <si>
+    <t>Log-in button</t>
+  </si>
+  <si>
+    <t>Log-out button</t>
+  </si>
+  <si>
+    <t>//a[@href='/dsp/logout.jsp']</t>
+  </si>
+  <si>
+    <t>Check Dashboard</t>
+  </si>
+  <si>
+    <t>//a[@href='#tabs-1' and text()='DashBoard']</t>
+  </si>
+  <si>
+    <t>DashBoard1</t>
+  </si>
+  <si>
+    <t>2000*1000</t>
   </si>
 </sst>
 </file>
@@ -1103,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1141,10 +1147,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1246,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1271,46 +1277,46 @@
   <sheetData>
     <row r="1" spans="1:256" s="22" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="K1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="L1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="M1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="26" t="s">
         <v>19</v>
-      </c>
-      <c r="N1" s="26" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:256" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -1318,19 +1324,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>22</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="J2" s="24"/>
       <c r="K2" s="21"/>
@@ -1343,22 +1349,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>27</v>
       </c>
       <c r="L3" s="30"/>
     </row>
@@ -1367,22 +1373,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:256" x14ac:dyDescent="0.2">
@@ -1390,20 +1396,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="29"/>
       <c r="I5" s="14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:256" x14ac:dyDescent="0.2">
@@ -1411,19 +1417,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>22</v>
+      <c r="G6" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:256" x14ac:dyDescent="0.2">
@@ -1431,24 +1440,24 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H8" s="15"/>
       <c r="M8" s="31"/>
